--- a/Timing tests Build 0.8.6 with and without Q.xlsx
+++ b/Timing tests Build 0.8.6 with and without Q.xlsx
@@ -333,7 +333,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CSS from ZIM (ms) with Q"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CSS from ZIM_x000a_without Q"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CSS ZIM overall gain" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CSS ZIM overall gain" dataDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[CSS from ZIM
 without Q]]&gt;Table1[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table1[[#This Row],[CSS from ZIM (ms) with Q]]-Table1[[#This Row],[CSS from ZIM
 without Q]])/Table1[[#This Row],[CSS from ZIM
@@ -341,7 +341,7 @@
     </tableColumn>
     <tableColumn id="7" xr3:uid="{8DDEA605-A629-4D95-B472-08EF18D07D6F}" name="CSS from Cache (ms) with Q"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CSS from Cache_x000a_without Q"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CSS Cache overall gain4" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CSS Cache overall gain4" dataDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[CSS from Cache
 without Q]]&gt;Table1[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table1[[#This Row],[CSS from Cache (ms) with Q]]-Table1[[#This Row],[CSS from Cache
 without Q]])/Table1[[#This Row],[CSS from Cache
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1085,30 +1085,30 @@
         <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>2837.12</v>
+        <v>317.86</v>
       </c>
       <c r="D28" s="2">
-        <v>2174.46</v>
+        <v>310.44</v>
       </c>
       <c r="E28" s="10" t="str">
         <f>IF(Table15[[#This Row],[CSS from ZIM
 without Q]]&gt;Table15[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from ZIM (ms) with Q]]-Table15[[#This Row],[CSS from ZIM
 without Q]])/Table15[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>+30.5%</v>
+        <v>+2.4%</v>
       </c>
       <c r="F28" s="2">
-        <v>2312.7199999999998</v>
+        <v>193.37</v>
       </c>
       <c r="G28" s="2">
-        <v>2869.07</v>
+        <v>183.05</v>
       </c>
       <c r="H28" s="10" t="str">
         <f>IF(Table15[[#This Row],[CSS from Cache
 without Q]]&gt;Table15[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from Cache (ms) with Q]]-Table15[[#This Row],[CSS from Cache
 without Q]])/Table15[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-19.4%</v>
+        <v>+5.6%</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
@@ -1116,30 +1116,30 @@
         <v>8</v>
       </c>
       <c r="C29" s="2">
-        <v>13716.88</v>
+        <v>745.75</v>
       </c>
       <c r="D29" s="2">
-        <v>13809.06</v>
+        <v>808.31</v>
       </c>
       <c r="E29" s="11" t="str">
         <f>IF(Table15[[#This Row],[CSS from ZIM
 without Q]]&gt;Table15[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from ZIM (ms) with Q]]-Table15[[#This Row],[CSS from ZIM
 without Q]])/Table15[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>-0.7%</v>
+        <v>-7.7%</v>
       </c>
       <c r="F29" s="2">
-        <v>658.52</v>
+        <v>157.61000000000001</v>
       </c>
       <c r="G29" s="2">
-        <v>684.44</v>
+        <v>163.15</v>
       </c>
       <c r="H29" s="11" t="str">
         <f>IF(Table15[[#This Row],[CSS from Cache
 without Q]]&gt;Table15[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from Cache (ms) with Q]]-Table15[[#This Row],[CSS from Cache
 without Q]])/Table15[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-3.8%</v>
+        <v>-3.4%</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
@@ -1148,33 +1148,33 @@
       </c>
       <c r="C30" s="12">
         <f>C28+C29</f>
-        <v>16554</v>
+        <v>1063.6100000000001</v>
       </c>
       <c r="D30" s="12">
         <f>D28+D29</f>
-        <v>15983.52</v>
+        <v>1118.75</v>
       </c>
       <c r="E30" s="13" t="str">
         <f>IF(Table15[[#This Row],[CSS from ZIM
 without Q]]&gt;Table15[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from ZIM (ms) with Q]]-Table15[[#This Row],[CSS from ZIM
 without Q]])/Table15[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>+3.6%</v>
+        <v>-4.9%</v>
       </c>
       <c r="F30" s="12">
         <f>F28+F29</f>
-        <v>2971.24</v>
+        <v>350.98</v>
       </c>
       <c r="G30" s="12">
         <f>G28+G29</f>
-        <v>3553.51</v>
+        <v>346.20000000000005</v>
       </c>
       <c r="H30" s="13" t="str">
         <f>IF(Table15[[#This Row],[CSS from Cache
 without Q]]&gt;Table15[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from Cache (ms) with Q]]-Table15[[#This Row],[CSS from Cache
 without Q]])/Table15[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-16.4%</v>
+        <v>+1.4%</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
@@ -1183,33 +1183,33 @@
       </c>
       <c r="C31" s="12">
         <f>C32-C30</f>
-        <v>1389.3199999999997</v>
+        <v>1579.6</v>
       </c>
       <c r="D31" s="12">
         <f>D32-D30</f>
-        <v>1087.2200000000012</v>
+        <v>1778.96</v>
       </c>
       <c r="E31" s="17" t="str">
         <f>IF(Table15[[#This Row],[CSS from ZIM
 without Q]]&gt;Table15[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from ZIM (ms) with Q]]-Table15[[#This Row],[CSS from ZIM
 without Q]])/Table15[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>+27.8%</v>
+        <v>-11.2%</v>
       </c>
       <c r="F31" s="12">
         <f>F32-F30</f>
-        <v>1301.58</v>
+        <v>1119.6199999999999</v>
       </c>
       <c r="G31" s="12">
         <f>G32-G30</f>
-        <v>872.85999999999967</v>
+        <v>1475.59</v>
       </c>
       <c r="H31" s="17" t="str">
         <f>IF(Table15[[#This Row],[CSS from Cache
 without Q]]&gt;Table15[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from Cache (ms) with Q]]-Table15[[#This Row],[CSS from Cache
 without Q]])/Table15[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>+49.1%</v>
+        <v>-24.1%</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
@@ -1217,30 +1217,30 @@
         <v>19</v>
       </c>
       <c r="C32" s="3">
-        <v>17943.32</v>
+        <v>2643.21</v>
       </c>
       <c r="D32" s="3">
-        <v>17070.740000000002</v>
+        <v>2897.71</v>
       </c>
       <c r="E32" s="16" t="str">
         <f>IF(Table15[[#This Row],[CSS from ZIM
 without Q]]&gt;Table15[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from ZIM (ms) with Q]]-Table15[[#This Row],[CSS from ZIM
 without Q]])/Table15[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>+5.1%</v>
+        <v>-8.8%</v>
       </c>
       <c r="F32" s="3">
-        <v>4272.82</v>
+        <v>1470.6</v>
       </c>
       <c r="G32" s="3">
-        <v>4426.37</v>
+        <v>1821.79</v>
       </c>
       <c r="H32" s="16" t="str">
         <f>IF(Table15[[#This Row],[CSS from Cache
 without Q]]&gt;Table15[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table15[[#This Row],[CSS from Cache (ms) with Q]]-Table15[[#This Row],[CSS from Cache
 without Q]])/Table15[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-3.5%</v>
+        <v>-19.3%</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
@@ -1358,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="2">
-        <v>2837.12</v>
+        <v>5418.4449999999997</v>
       </c>
       <c r="D46" s="2">
         <v>4889.22</v>
@@ -1368,10 +1368,10 @@
 without Q]]&gt;Table156[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from ZIM (ms) with Q]]-Table156[[#This Row],[CSS from ZIM
 without Q]])/Table156[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>-42%</v>
+        <v>+10.8%</v>
       </c>
       <c r="F46" s="2">
-        <v>2312.7199999999998</v>
+        <v>5335.98</v>
       </c>
       <c r="G46" s="2">
         <v>4773.0249999999996</v>
@@ -1381,7 +1381,7 @@
 without Q]]&gt;Table156[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from Cache (ms) with Q]]-Table156[[#This Row],[CSS from Cache
 without Q]])/Table156[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-51.5%</v>
+        <v>+11.8%</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
@@ -1389,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="2">
-        <v>13716.88</v>
+        <v>35264.834999999999</v>
       </c>
       <c r="D47" s="2">
         <v>30759.1</v>
@@ -1399,10 +1399,10 @@
 without Q]]&gt;Table156[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from ZIM (ms) with Q]]-Table156[[#This Row],[CSS from ZIM
 without Q]])/Table156[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>-55.4%</v>
+        <v>+14.6%</v>
       </c>
       <c r="F47" s="2">
-        <v>658.52</v>
+        <v>1264.7650000000001</v>
       </c>
       <c r="G47" s="2">
         <v>1221.575</v>
@@ -1412,7 +1412,7 @@
 without Q]]&gt;Table156[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from Cache (ms) with Q]]-Table156[[#This Row],[CSS from Cache
 without Q]])/Table156[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-46.1%</v>
+        <v>+3.5%</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C48" s="12">
         <f>C46+C47</f>
-        <v>16554</v>
+        <v>40683.279999999999</v>
       </c>
       <c r="D48" s="12">
         <f>D46+D47</f>
@@ -1432,11 +1432,11 @@
 without Q]]&gt;Table156[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from ZIM (ms) with Q]]-Table156[[#This Row],[CSS from ZIM
 without Q]])/Table156[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>-53.6%</v>
+        <v>+14.1%</v>
       </c>
       <c r="F48" s="12">
         <f>F46+F47</f>
-        <v>2971.24</v>
+        <v>6600.7449999999999</v>
       </c>
       <c r="G48" s="12">
         <f>G46+G47</f>
@@ -1447,7 +1447,7 @@
 without Q]]&gt;Table156[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from Cache (ms) with Q]]-Table156[[#This Row],[CSS from Cache
 without Q]])/Table156[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-50.4%</v>
+        <v>+10.1%</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C49" s="12">
         <f>C50-C48</f>
-        <v>1389.3199999999997</v>
+        <v>3716.864999999998</v>
       </c>
       <c r="D49" s="12">
         <f>D50-D48</f>
@@ -1467,11 +1467,11 @@
 without Q]]&gt;Table156[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from ZIM (ms) with Q]]-Table156[[#This Row],[CSS from ZIM
 without Q]])/Table156[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>-65.5%</v>
+        <v>-7.6%</v>
       </c>
       <c r="F49" s="12">
         <f>F50-F48</f>
-        <v>1301.58</v>
+        <v>3594.9800000000005</v>
       </c>
       <c r="G49" s="12">
         <f>G50-G48</f>
@@ -1482,7 +1482,7 @@
 without Q]]&gt;Table156[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from Cache (ms) with Q]]-Table156[[#This Row],[CSS from Cache
 without Q]])/Table156[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-68%</v>
+        <v>-11.5%</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
@@ -1490,7 +1490,7 @@
         <v>19</v>
       </c>
       <c r="C50" s="3">
-        <v>17943.32</v>
+        <v>44400.144999999997</v>
       </c>
       <c r="D50" s="3">
         <v>39672</v>
@@ -1500,10 +1500,10 @@
 without Q]]&gt;Table156[[#This Row],[CSS from ZIM (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from ZIM (ms) with Q]]-Table156[[#This Row],[CSS from ZIM
 without Q]])/Table156[[#This Row],[CSS from ZIM
 without Q]]*100,1) &amp; "%"</f>
-        <v>-54.8%</v>
+        <v>+11.9%</v>
       </c>
       <c r="F50" s="3">
-        <v>4272.82</v>
+        <v>10195.725</v>
       </c>
       <c r="G50" s="3">
         <v>10057.535</v>
@@ -1513,7 +1513,7 @@
 without Q]]&gt;Table156[[#This Row],[CSS from Cache (ms) with Q]],"","+") &amp; ROUND((Table156[[#This Row],[CSS from Cache (ms) with Q]]-Table156[[#This Row],[CSS from Cache
 without Q]])/Table156[[#This Row],[CSS from Cache
 without Q]]*100,1) &amp; "%"</f>
-        <v>-57.5%</v>
+        <v>+1.4%</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
